--- a/data/full_database.xlsx
+++ b/data/full_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\selin\Documents\GitHub\biomaterial-melting-points\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0E3C51-AD1E-43E7-9B19-6F6750F67313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E3AF7A-AFA0-42AB-9F19-29BE01119012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23" yWindow="353" windowWidth="12352" windowHeight="14085" xr2:uid="{5B45D403-8DFD-4D52-B90E-25546BE8F3ED}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{5B45D403-8DFD-4D52-B90E-25546BE8F3ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
   <si>
     <t>Name</t>
   </si>
@@ -1208,6 +1208,462 @@
   <si>
     <t xml:space="preserve">C([C@@H]1[C@H]([C@@H]([C@H]([C@@H](O1)OC2[C@H](O[C@@H]([C@@H]([C@H]2O)O)O)CO)O)O)O)O
 </t>
+  </si>
+  <si>
+    <t>1-thio-beta-D-glucose tetraacetate</t>
+  </si>
+  <si>
+    <t>1,6-anhydro-beta-D-glucopyranose</t>
+  </si>
+  <si>
+    <t>2,3,4,6-tetra-o-benzyl-alpha-D-glucopyranose</t>
+  </si>
+  <si>
+    <t>2,3,4,6-tetra-o-benzyl-D-glucopyranose</t>
+  </si>
+  <si>
+    <t>2-deoxy-D-glucose</t>
+  </si>
+  <si>
+    <t>acetobromo-alpha-D-glucose</t>
+  </si>
+  <si>
+    <t>alpha-D-glucose pentaacetate</t>
+  </si>
+  <si>
+    <t>beta-D-galactose pentaacetate</t>
+  </si>
+  <si>
+    <t>D-arabinose</t>
+  </si>
+  <si>
+    <t>CC(=O)OC[C@@H]1[C@H]([C@@H]([C@H]([C@@H](O1)S)OC(=O)C)OC(=O)C)OC(=O)C</t>
+  </si>
+  <si>
+    <t>C1[C@@H]2[C@H]([C@@H]([C@H]([C@H](O1)O2)O)O)O</t>
+  </si>
+  <si>
+    <t>c1ccc(cc1)COC[C@@H]2[C@H]([C@@H]([C@H]([C@H](O2)O)OCc3ccccc3)OCc4ccccc4)OCc5ccccc5</t>
+  </si>
+  <si>
+    <t>c1ccc(cc1)COC[C@@H]2[C@H]([C@@H]([C@H](C(O2)O)OCc3ccccc3)OCc4ccccc4)OCc5ccccc5</t>
+  </si>
+  <si>
+    <t>C1[C@H]([C@@H]([C@H](OC1O)CO)O)O</t>
+  </si>
+  <si>
+    <t>CC(=O)OC[C@@H]1[C@H]([C@@H]([C@H]([C@H](O1)Br)OC(=O)C)OC(=O)C)OC(=O)C</t>
+  </si>
+  <si>
+    <t>CC(=O)OC[C@@H]1[C@H]([C@@H]([C@H]([C@H](O1)OC(=O)C)OC(=O)C)OC(=O)C)OC(=O)C</t>
+  </si>
+  <si>
+    <t>CC(=O)OC[C@@H]1[C@@H]([C@@H]([C@H]([C@@H](O1)OC(=O)C)OC(=O)C)OC(=O)C)OC(=O)C</t>
+  </si>
+  <si>
+    <t>C([C@H]([C@H]([C@@H](C=O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>D-fucose</t>
+  </si>
+  <si>
+    <t>C[C@H]([C@@H]([C@@H]([C@H](C=O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>diacetone-D-glucose</t>
+  </si>
+  <si>
+    <t>CC1(OCC(O1)[C@@H]2[C@@H]([C@@H]3[C@H](O2)OC(O3)(C)C)O)C</t>
+  </si>
+  <si>
+    <t>dl-arabinose</t>
+  </si>
+  <si>
+    <t>C([C@@H]([C@@H]([C@H](C=O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>methyl 4,6-o-benzylidene-alpha-d-glucopyranoside</t>
+  </si>
+  <si>
+    <t>CO[C@@H]1[C@@H]([C@H]([C@H]2[C@H](O1)CO[C@H](O2)c3ccccc3)O)O</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6-Pentakis-O-{3,4-dihydroxy-5-[(3,4,5-trihydroxybenzoyl)oxy]benzoyl}-beta-D-glucopyranose</t>
+  </si>
+  <si>
+    <t>O=C(O[C@@H]9O[C@H](COC(=O)c2cc(O)c(O)c(OC(=O)c1cc(O)c(O)c(O)c1)c2)[C@@H](OC(=O)c4cc(O)c(O)c(OC(=O)c3cc(O)c(O)c(O)c3)c4)[C@H](OC(=O)c6cc(O)c(O)c(OC(=O)c5cc(O)c(O)c(O)c5)c6)[C@H]9OC(=O)c8cc(O)c(O)c(OC(=O)c7cc(O)c(O)c(O)c7)c8)c%11cc(O)c(O)c(OC(=O)c%10cc(O)c(O)c(O)c%10)c%11</t>
+  </si>
+  <si>
+    <t>2-(Hydroxymethyl)phenyl beta-D-glucopyranoside</t>
+  </si>
+  <si>
+    <t>OCc2ccccc2O[C@@H]1O[C@H](CO)[C@@H](O)[C@H](O)[C@H]1O</t>
+  </si>
+  <si>
+    <t>2-O-Acetyl-3-O-bromo-D-glucose</t>
+  </si>
+  <si>
+    <t>Br[C@H]1O[C@H](COC(C)=O)[C@@H](OC(C)=O)[C@H](OC(C)=O)[C@H]1OC(C)=O</t>
+  </si>
+  <si>
+    <t>7-Hydroxy-2-oxo-2H-chromen-6-yl beta-D-glucopyranoside</t>
+  </si>
+  <si>
+    <t>O=C2C=Cc3cc(O[C@@H]1O[C@H](CO)[C@@H](O)[C@H](O)[C@H]1O)c(O)cc3O2</t>
+  </si>
+  <si>
+    <t>alpha-D-Glucopyranosyl-(1-&gt;4)-alpha-D-glucopyranosyl-(1-&gt;4)-D-glucopyranose</t>
+  </si>
+  <si>
+    <t>O[C@@H]3[C@@H](O)[C@H](O)[C@@H](CO)O[C@@H]3O[C@@H]2[C@@H](CO)O[C@H](O[C@@H]1[C@@H](CO)OC(O)[C@H](O)[C@H]1O)[C@H](O)[C@H]2O</t>
+  </si>
+  <si>
+    <t>Dodecyl 4-O-alpha-D-glucopyranosyl-beta-D-glucopyranoside</t>
+  </si>
+  <si>
+    <t>O[C@@H]2[C@@H](O)[C@H](O)[C@@H](CO)O[C@@H]2O[C@@H]1[C@@H](CO)O[C@@H](OCCCCCCCCCCCC)[C@H](O)[C@H]1O</t>
+  </si>
+  <si>
+    <t>.alpha.-d-glucopyranoside, methyl</t>
+  </si>
+  <si>
+    <t>OC1C(O)C(O)C(CO)OC1OC</t>
+  </si>
+  <si>
+    <t>.beta.-d-glucopyranose, 4-o-.beta.-d-galactopyra</t>
+  </si>
+  <si>
+    <t>OC2C(OC1OC(CO)C(O)C(O)C1O)C(CO)OC(O)C2O</t>
+  </si>
+  <si>
+    <t>beta-d-glucopyranose, pentaacetate</t>
+  </si>
+  <si>
+    <t>d-galacturonic acid</t>
+  </si>
+  <si>
+    <t>OC(C(O)C(O)C(O)C=O)C(=O)O</t>
+  </si>
+  <si>
+    <t>d-fructose, 3-o-.alpha.-d-glucopyranosyl-</t>
+  </si>
+  <si>
+    <t>OCC(O)C(O)C(OC1OC(CO)C(O)C(O)C1O)C(=O)CO</t>
+  </si>
+  <si>
+    <t>d-fucose</t>
+  </si>
+  <si>
+    <t>OC(C)C(O)C(O)C(O)C=O</t>
+  </si>
+  <si>
+    <t>beta-d-glucopyranoside, 4-nitrophenyl</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)c1ccc(cc1)OC2OC(CO)C(O)C(O)C2O</t>
+  </si>
+  <si>
+    <t>cellobiose</t>
+  </si>
+  <si>
+    <t>O=CC(O)C(O)C(OC1OC(CO)C(O)C(O)C1O)C(O)CO</t>
+  </si>
+  <si>
+    <t>5-thio-d-glucose</t>
+  </si>
+  <si>
+    <t>OC1C(O)C(CO)SC(O)C1O</t>
+  </si>
+  <si>
+    <t>beta-d-glucopyranoside, phenyl</t>
+  </si>
+  <si>
+    <t>OCC2OC(Oc1ccccc1)C(O)C(O)C2O</t>
+  </si>
+  <si>
+    <t>acetobromglucose</t>
+  </si>
+  <si>
+    <t>O=C(C)OC1OC(CBr)C(OC(C)=O)C(OC(C)=O)C1OC(C)=O</t>
+  </si>
+  <si>
+    <t>4-methoxyphenyl glucopyranoside</t>
+  </si>
+  <si>
+    <t>COc1ccc(cc1)OC2OC(CO)C(O)C(O)C2O</t>
+  </si>
+  <si>
+    <t>glucopyranoside, propyl, tetranitrate, ?-d-</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)OCC1OC(OCCC)C(O[N+]([O-])=O)C(O[N+]([O-])=O)C1O[N+]([O-])=O</t>
+  </si>
+  <si>
+    <t>glucopyranoside, butyl, tetranitrate, ?-d-</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)OCC1OC(OCCCC)C(O[N+]([O-])=O)C(O[N+]([O-])=O)C1O[N+]([O-])=O</t>
+  </si>
+  <si>
+    <t>2-Deoxy-2-[(methoxycarbonyl)amino]-beta-D-glucopyranose</t>
+  </si>
+  <si>
+    <t>O=C(OC)N[C@@H]1[C@@H](O)[C@H](O)[C@H](O[C@H]1O)CO</t>
+  </si>
+  <si>
+    <t>N-Carbamoyl-beta-D-glucopyranosylamine</t>
+  </si>
+  <si>
+    <t>O=C(N[C@@H]1O[C@@H]([C@@H](O)[C@H](O)[C@H]1O)CO)N</t>
+  </si>
+  <si>
+    <t>CC(=O)OC[C@@H]1[C@H]([C@@H]([C@H]([C@@H](O1)OC(=O)C)OC(=O)C)OC(=O)C)OC(=O)C</t>
+  </si>
+  <si>
+    <t>Octaacetyl-β-cellobiose</t>
+  </si>
+  <si>
+    <t>CC(=O)OC[C@@H]1[C@H]([C@@H]([C@H]([C@@H](O1)OC(=O)C)OC(=O)C)OC(=O)C)O[C@H]2[C@@H]([C@H]([C@@H]([C@H](O2)COC(=O)C)OC(=O)C)OC(=O)C)OC(=O)C</t>
+  </si>
+  <si>
+    <t>n-butyl-n-(2-acetoxyethyl)-4-((4-nitro-2,6-dicyanophenyl)azo)-3-methylbenzeneamine</t>
+  </si>
+  <si>
+    <t>CCCCN(CCOC(=O)C)c1ccc(c(c1)C)/N=N/c2c(cc(cc2C#N)[N+](=O)[O-])C#N</t>
+  </si>
+  <si>
+    <t>4-Benzoylbiphenyl</t>
+  </si>
+  <si>
+    <t>c1ccc(cc1)c2ccc(cc2)C(=O)c3ccccc3</t>
+  </si>
+  <si>
+    <t>D-Glucono-δ-lactone</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@H](C(=O)O1)O)O)O)O</t>
+  </si>
+  <si>
+    <t>Arbutin</t>
+  </si>
+  <si>
+    <t>c1cc(ccc1O)O[C@H]2[C@@H]([C@H]([C@@H]([C@H](O2)CO)O)O)O</t>
+  </si>
+  <si>
+    <t>Hesperidin</t>
+  </si>
+  <si>
+    <t>C[C@H]1[C@@H]([C@H]([C@H]([C@@H](O1)OC[C@@H]2[C@H]([C@@H]([C@H]([C@@H](O2)Oc3cc(c4c(c3)O[C@@H](CC4=O)c5ccc(c(c5)O)OC)O)O)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>D-Mannopyranose</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@@H](C(O1)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>4-Nitrophenyl β-D-glucoside</t>
+  </si>
+  <si>
+    <t>c1cc(ccc1[N+](=O)[O-])O[C@H]2[C@@H]([C@H]([C@@H]([C@H](O2)CO)O)O)O</t>
+  </si>
+  <si>
+    <t>isoquercetin</t>
+  </si>
+  <si>
+    <t>c1cc(c(cc1c2c(c(=O)c3c(cc(cc3o2)O)O)O[C@H]4[C@@H]([C@H]([C@@H]([C@H](O4)CO)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>β-Maltose</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@H]([C@H](O1)O[C@@H]2[C@H](O[C@H]([C@@H]([C@H]2O)O)O)CO)O)O)O)O</t>
+  </si>
+  <si>
+    <t>LZ4958000</t>
+  </si>
+  <si>
+    <t>CC1(OC[C@@H](O1)[C@@H]2[C@@H]([C@@H]3[C@H](O2)OC(O3)(C)C)O)C</t>
+  </si>
+  <si>
+    <t>N-acetyl-α-D-glucosamine</t>
+  </si>
+  <si>
+    <t>CC(=O)N[C@@H]1[C@H]([C@@H]([C@H](O[C@@H]1O)CO)O)O</t>
+  </si>
+  <si>
+    <t>Fludeoxyglucose</t>
+  </si>
+  <si>
+    <t>C([C@H]([C@H]([C@@H]([C@H](C=O)F)O)O)O)O</t>
+  </si>
+  <si>
+    <t>C([C@@H]([C@H]([C@@H]([C@@H](CO)O)O)O)O)N</t>
+  </si>
+  <si>
+    <t>Monoacetone glucose</t>
+  </si>
+  <si>
+    <t>CC1(O[C@@H]2[C@H]([C@H](O[C@@H]2O1)[C@@H](CO)O)O)C</t>
+  </si>
+  <si>
+    <t>CC(=O)N[C@@H]1[C@H]([C@H]([C@H](OC1O)CO)O)O</t>
+  </si>
+  <si>
+    <t>Î²-D-Glucosamine Pentaacetate</t>
+  </si>
+  <si>
+    <t>CC(=O)N[C@@H]1[C@H]([C@@H]([C@H](O[C@H]1OC(=O)C)COC(=O)C)OC(=O)C)OC(=O)C</t>
+  </si>
+  <si>
+    <t>MUD</t>
+  </si>
+  <si>
+    <t>Cc1cc(=O)oc2c1ccc(c2)O[C@H]3[C@@H]([C@H]([C@@H]([C@H](O3)CO)O)O)O</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6-Pentagalloyl glucose</t>
+  </si>
+  <si>
+    <t>c1c(cc(c(c1O)O)O)C(=O)OC[C@@H]2[C@H]([C@@H]([C@H]([C@@H](O2)OC(=O)c3cc(c(c(c3)O)O)O)OC(=O)c4cc(c(c(c4)O)O)O)OC(=O)c5cc(c(c(c5)O)O)O)OC(=O)c6cc(c(c(c6)O)O)O</t>
+  </si>
+  <si>
+    <t>Cc1cc(=O)oc2c1ccc(c2)O[C@@H]3[C@@H]([C@H]([C@@H]([C@H](O3)CO)O)O)O</t>
+  </si>
+  <si>
+    <t>N-Acetyl-b-D-glucosamine</t>
+  </si>
+  <si>
+    <t>CC(=O)N[C@@H]1[C@H]([C@@H]([C@H](O[C@H]1O)CO)O)O</t>
+  </si>
+  <si>
+    <t>Thioglucose</t>
+  </si>
+  <si>
+    <t>C([C@H]([C@H]([C@@H]([C@H](C=O)O)O)O)S)O</t>
+  </si>
+  <si>
+    <t>Maltotriose</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@H]([C@H](O1)O[C@@H]2[C@H](O[C@@H]([C@@H]([C@H]2O)O)O[C@@H]3[C@H](OC([C@@H]([C@H]3O)O)O)CO)CO)O)O)O)O</t>
+  </si>
+  <si>
+    <t>D-Glucose pentaacetate</t>
+  </si>
+  <si>
+    <t>CC(=O)OC[C@H]([C@H]([C@@H]([C@H](C=O)OC(=O)C)OC(=O)C)OC(=O)C)OC(=O)C</t>
+  </si>
+  <si>
+    <t>Î²-D-Glucopyranose, 1,2,3,4-tetraacetate</t>
+  </si>
+  <si>
+    <t>CC(=O)O[C@@H]1[C@H](O[C@H]([C@@H]([C@H]1OC(=O)C)OC(=O)C)OC(=O)C)CO</t>
+  </si>
+  <si>
+    <t>corilagin</t>
+  </si>
+  <si>
+    <t>c1c(cc(c(c1O)O)O)C(=O)O[C@H]2[C@@H]([C@@H]3[C@@H]([C@H](O2)COC(=O)c4cc(c(c(c4-c5c(cc(c(c5O)O)O)C(=O)O3)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>Allyl a-D-Glucopyranoside</t>
+  </si>
+  <si>
+    <t>C=CCO[C@@H]1[C@@H]([C@H]([C@@H]([C@H](O1)CO)O)O)O</t>
+  </si>
+  <si>
+    <t>Tannic acid, β</t>
+  </si>
+  <si>
+    <t>c1c(cc(c(c1O)O)O)C(=O)Oc2cc(cc(c2O)O)C(=O)OC[C@@H]3[C@H]([C@@H]([C@H]([C@@H](O3)OC(=O)c4cc(c(c(c4)OC(=O)c5cc(c(c(c5)O)O)O)O)O)OC(=O)c6cc(c(c(c6)OC(=O)c7cc(c(c(c7)O)O)O)O)O)OC(=O)c8cc(c(c(c8)OC(=O)c9cc(c(c(c9)O)O)O)O)O)OC(=O)c1cc(c(c(c1)OC(=O)c1cc(c(c(c1)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>Acarbose</t>
+  </si>
+  <si>
+    <t>C[C@@H]1[C@H]([C@@H]([C@H]([C@H](O1)O[C@@H]2[C@H](O[C@@H]([C@@H]([C@H]2O)O)O[C@@H]3[C@H](OC([C@@H]([C@H]3O)O)O)CO)CO)O)O)N[C@H]4C=C([C@H]([C@@H]([C@H]4O)O)O)CO</t>
+  </si>
+  <si>
+    <t>sodium glucose 6-phosphate</t>
+  </si>
+  <si>
+    <t>C([C@H]([C@H]([C@@H]([C@H](C=O)O)O)O)O)OP(=O)(O)[O-].[Na+]</t>
+  </si>
+  <si>
+    <t>D-glucosone</t>
+  </si>
+  <si>
+    <t>C([C@H]([C@H]([C@@H](C(=O)C=O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>D-Cellotriose</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@H]([C@@H](O1)O[C@@H]2[C@H](O[C@H]([C@@H]([C@H]2O)O)O[C@@H]3[C@H](OC([C@@H]([C@H]3O)O)O)CO)CO)O)O)O)O</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@H](C(O1)O)N)O)O)O.Cl</t>
+  </si>
+  <si>
+    <t>methyl D-glucoside</t>
+  </si>
+  <si>
+    <t>COC1[C@@H]([C@H]([C@@H]([C@H](O1)CO)O)O)O</t>
+  </si>
+  <si>
+    <t>Melibiose</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@@H]([C@@H]([C@H]([C@H](O1)OC[C@@H]2[C@H]([C@@H]([C@H]([C@@H](O2)O)O)O)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>D-glucose monohydrate</t>
+  </si>
+  <si>
+    <t>C([C@H]([C@H]([C@@H]([C@H](C=O)O)O)O)O)O.O</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@H]([C@H](O1)O[C@H]([C@@H](CO)O)[C@@H]([C@H](C=O)O)O)O)O)O)O.O</t>
+  </si>
+  <si>
+    <t>6-AMINO-6-DEOXY-D-GLUCOSE HYDROCHLORIDE</t>
+  </si>
+  <si>
+    <t>C([C@H]([C@H]([C@@H]([C@H](C=O)O)O)O)O)N.Cl</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@H]([C@H](O1)OC[C@@H]2[C@H]([C@@H]([C@H](C(O2)O)O)O)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>Gentiobiose</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@H]([C@@H](O1)OC[C@H]([C@H]([C@@H]([C@H](C=O)O)O)O)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>chitobiose</t>
+  </si>
+  <si>
+    <t>CC(=O)N[C@@H]1[C@H]([C@@H]([C@H](O[C@H]1O[C@@H]2[C@H](OC([C@@H]([C@H]2O)NC(=O)C)O)CO)CO)O)O</t>
+  </si>
+  <si>
+    <t>β-D-Xylopyranose</t>
+  </si>
+  <si>
+    <t>C1[C@H]([C@@H]([C@H]([C@@H](O1)O)O)O)O</t>
+  </si>
+  <si>
+    <t>MFCD00006820</t>
+  </si>
+  <si>
+    <t>CC1OC[C@@H]2[C@@H](O1)[C@@H]([C@H]([C@H](O2)O)O)O</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@H](C(O1)O)O)F)O)O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225-232 </t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1708,118 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1562,19 +2129,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FEAFF2-F04C-425F-95A3-22F0AC024604}">
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.86328125" customWidth="1"/>
     <col min="2" max="2" width="9.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1591,8 +2158,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>44</v>
       </c>
       <c r="B2">
@@ -1605,8 +2172,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>45</v>
       </c>
       <c r="B3">
@@ -1619,8 +2186,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>46</v>
       </c>
       <c r="B4">
@@ -1633,8 +2200,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>47</v>
       </c>
       <c r="B5">
@@ -1647,8 +2214,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>48</v>
       </c>
       <c r="B6">
@@ -1661,8 +2228,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>49</v>
       </c>
       <c r="B7">
@@ -1675,8 +2242,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>50</v>
       </c>
       <c r="B8">
@@ -1689,8 +2256,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>51</v>
       </c>
       <c r="B9">
@@ -1703,8 +2270,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>52</v>
       </c>
       <c r="B10">
@@ -1717,8 +2284,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>53</v>
       </c>
       <c r="B11">
@@ -1731,8 +2298,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>54</v>
       </c>
       <c r="B12">
@@ -1745,8 +2312,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>55</v>
       </c>
       <c r="B13">
@@ -1759,8 +2326,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="171" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>56</v>
       </c>
       <c r="B14">
@@ -1773,8 +2340,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>57</v>
       </c>
       <c r="B15">
@@ -1787,8 +2354,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>58</v>
       </c>
       <c r="B16">
@@ -1801,8 +2368,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>59</v>
       </c>
       <c r="B17">
@@ -1815,8 +2382,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>60</v>
       </c>
       <c r="B18">
@@ -1829,8 +2396,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>61</v>
       </c>
       <c r="B19">
@@ -1843,8 +2410,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>62</v>
       </c>
       <c r="B20">
@@ -1857,8 +2424,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>63</v>
       </c>
       <c r="B21">
@@ -1871,8 +2438,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>64</v>
       </c>
       <c r="B22">
@@ -1885,8 +2452,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>65</v>
       </c>
       <c r="B23">
@@ -1899,8 +2466,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>66</v>
       </c>
       <c r="B24">
@@ -1913,8 +2480,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>67</v>
       </c>
       <c r="B25">
@@ -1927,8 +2494,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>68</v>
       </c>
       <c r="B26">
@@ -1941,8 +2508,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>69</v>
       </c>
       <c r="B27">
@@ -1955,8 +2522,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>70</v>
       </c>
       <c r="B28">
@@ -1969,8 +2536,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>71</v>
       </c>
       <c r="B29">
@@ -1983,8 +2550,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
       <c r="B30">
@@ -1997,8 +2564,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>73</v>
       </c>
       <c r="B31">
@@ -2011,8 +2578,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>74</v>
       </c>
       <c r="B32">
@@ -2025,8 +2592,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>75</v>
       </c>
       <c r="B33">
@@ -2039,8 +2606,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>76</v>
       </c>
       <c r="B34">
@@ -2053,8 +2620,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="171" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>77</v>
       </c>
       <c r="B35">
@@ -2067,8 +2634,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
         <v>78</v>
       </c>
       <c r="B36">
@@ -2081,8 +2648,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>79</v>
       </c>
       <c r="B37">
@@ -2095,8 +2662,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>80</v>
       </c>
       <c r="B38">
@@ -2109,8 +2676,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>81</v>
       </c>
       <c r="B39">
@@ -2123,8 +2690,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>82</v>
       </c>
       <c r="B40">
@@ -2137,8 +2704,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>83</v>
       </c>
       <c r="B41">
@@ -2151,8 +2718,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
         <v>84</v>
       </c>
       <c r="B42">
@@ -2165,8 +2732,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>85</v>
       </c>
       <c r="B43">
@@ -2179,8 +2746,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>86</v>
       </c>
       <c r="B44">
@@ -2193,8 +2760,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>87</v>
       </c>
       <c r="B45">
@@ -2207,8 +2774,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
         <v>88</v>
       </c>
       <c r="B46">
@@ -2221,8 +2788,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
         <v>89</v>
       </c>
       <c r="B47">
@@ -2235,8 +2802,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
         <v>90</v>
       </c>
       <c r="B48">
@@ -2249,8 +2816,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
         <v>91</v>
       </c>
       <c r="B49">
@@ -2263,8 +2830,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
         <v>92</v>
       </c>
       <c r="B50">
@@ -2277,8 +2844,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>93</v>
       </c>
       <c r="B51">
@@ -2291,8 +2858,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
         <v>94</v>
       </c>
       <c r="B52">
@@ -2305,8 +2872,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="285" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
         <v>95</v>
       </c>
       <c r="B53">
@@ -2319,8 +2886,8 @@
         <v>305</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
         <v>96</v>
       </c>
       <c r="B54">
@@ -2333,8 +2900,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>97</v>
       </c>
       <c r="B55">
@@ -2347,8 +2914,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
         <v>98</v>
       </c>
       <c r="B56">
@@ -2361,8 +2928,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
         <v>99</v>
       </c>
       <c r="B57">
@@ -2375,8 +2942,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
         <v>100</v>
       </c>
       <c r="B58">
@@ -2389,8 +2956,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
         <v>101</v>
       </c>
       <c r="B59">
@@ -2403,8 +2970,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
         <v>102</v>
       </c>
       <c r="B60">
@@ -2417,8 +2984,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
         <v>103</v>
       </c>
       <c r="B61">
@@ -2431,8 +2998,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
         <v>104</v>
       </c>
       <c r="B62">
@@ -2445,8 +3012,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
         <v>105</v>
       </c>
       <c r="B63">
@@ -2459,8 +3026,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
         <v>106</v>
       </c>
       <c r="B64">
@@ -2473,8 +3040,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
         <v>107</v>
       </c>
       <c r="B65">
@@ -2487,8 +3054,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
         <v>108</v>
       </c>
       <c r="B66">
@@ -2501,8 +3068,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
         <v>109</v>
       </c>
       <c r="B67">
@@ -2515,8 +3082,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
         <v>110</v>
       </c>
       <c r="B68">
@@ -2529,8 +3096,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="171" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
         <v>111</v>
       </c>
       <c r="B69">
@@ -2543,8 +3110,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
         <v>112</v>
       </c>
       <c r="B70">
@@ -2557,8 +3124,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
         <v>113</v>
       </c>
       <c r="B71">
@@ -2571,8 +3138,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
         <v>114</v>
       </c>
       <c r="B72">
@@ -2585,8 +3152,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
         <v>115</v>
       </c>
       <c r="B73">
@@ -2599,8 +3166,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
         <v>116</v>
       </c>
       <c r="B74">
@@ -2613,8 +3180,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
         <v>117</v>
       </c>
       <c r="B75">
@@ -2627,8 +3194,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
         <v>118</v>
       </c>
       <c r="B76">
@@ -2641,8 +3208,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
         <v>119</v>
       </c>
       <c r="B77">
@@ -2655,8 +3222,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
         <v>120</v>
       </c>
       <c r="B78">
@@ -2669,8 +3236,8 @@
         <v>345</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
         <v>121</v>
       </c>
       <c r="B79">
@@ -2683,8 +3250,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
         <v>122</v>
       </c>
       <c r="B80">
@@ -2697,8 +3264,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
         <v>123</v>
       </c>
       <c r="B81">
@@ -2711,8 +3278,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="171" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
         <v>124</v>
       </c>
       <c r="B82">
@@ -2725,8 +3292,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
         <v>125</v>
       </c>
       <c r="B83">
@@ -2739,8 +3306,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
         <v>126</v>
       </c>
       <c r="B84">
@@ -2753,8 +3320,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
         <v>127</v>
       </c>
       <c r="B85">
@@ -2767,8 +3334,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
         <v>128</v>
       </c>
       <c r="B86">
@@ -2781,8 +3348,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
         <v>129</v>
       </c>
       <c r="B87">
@@ -2795,8 +3362,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
         <v>130</v>
       </c>
       <c r="B88">
@@ -2809,8 +3376,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
         <v>131</v>
       </c>
       <c r="B89">
@@ -2823,8 +3390,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
         <v>132</v>
       </c>
       <c r="B90">
@@ -2837,8 +3404,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
         <v>133</v>
       </c>
       <c r="B91">
@@ -2851,8 +3418,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
         <v>134</v>
       </c>
       <c r="B92">
@@ -2865,8 +3432,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A93" s="1" t="s">
+    <row r="93" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
         <v>135</v>
       </c>
       <c r="B93">
@@ -2879,8 +3446,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="171" x14ac:dyDescent="0.45">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
         <v>136</v>
       </c>
       <c r="B94">
@@ -2893,8 +3460,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="171" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
+    <row r="95" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
         <v>137</v>
       </c>
       <c r="B95">
@@ -2907,8 +3474,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
+    <row r="96" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
         <v>138</v>
       </c>
       <c r="B96">
@@ -2921,8 +3488,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
+    <row r="97" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
         <v>139</v>
       </c>
       <c r="B97">
@@ -2935,8 +3502,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A98" s="1" t="s">
+    <row r="98" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
         <v>140</v>
       </c>
       <c r="B98">
@@ -2949,8 +3516,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
+    <row r="99" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
         <v>141</v>
       </c>
       <c r="B99">
@@ -2963,8 +3530,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
+    <row r="100" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
         <v>142</v>
       </c>
       <c r="B100">
@@ -2977,8 +3544,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A101" s="1" t="s">
+    <row r="101" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
         <v>143</v>
       </c>
       <c r="B101">
@@ -2991,8 +3558,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
         <v>144</v>
       </c>
       <c r="B102">
@@ -3005,8 +3572,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
         <v>145</v>
       </c>
       <c r="B103">
@@ -3019,8 +3586,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
+    <row r="104" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
         <v>146</v>
       </c>
       <c r="B104">
@@ -3033,8 +3600,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
+    <row r="105" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
         <v>147</v>
       </c>
       <c r="B105">
@@ -3047,8 +3614,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="s">
+    <row r="106" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
         <v>148</v>
       </c>
       <c r="B106">
@@ -3061,8 +3628,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A107" s="1" t="s">
+    <row r="107" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
         <v>149</v>
       </c>
       <c r="B107">
@@ -3075,8 +3642,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
         <v>150</v>
       </c>
       <c r="B108">
@@ -3089,8 +3656,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
+    <row r="109" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
         <v>151</v>
       </c>
       <c r="B109">
@@ -3103,8 +3670,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
+    <row r="110" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
         <v>152</v>
       </c>
       <c r="B110">
@@ -3117,8 +3684,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
+    <row r="111" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
         <v>153</v>
       </c>
       <c r="B111">
@@ -3131,8 +3698,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A112" s="1" t="s">
+    <row r="112" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
         <v>154</v>
       </c>
       <c r="B112">
@@ -3145,8 +3712,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A113" s="1" t="s">
+    <row r="113" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
         <v>155</v>
       </c>
       <c r="B113">
@@ -3159,8 +3726,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A114" s="1" t="s">
+    <row r="114" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
         <v>156</v>
       </c>
       <c r="B114">
@@ -3173,8 +3740,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A115" s="1" t="s">
+    <row r="115" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
         <v>157</v>
       </c>
       <c r="B115">
@@ -3187,8 +3754,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A116" s="1" t="s">
+    <row r="116" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
         <v>158</v>
       </c>
       <c r="B116">
@@ -3201,8 +3768,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A117" s="1" t="s">
+    <row r="117" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
         <v>159</v>
       </c>
       <c r="B117">
@@ -3215,8 +3782,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A118" s="1" t="s">
+    <row r="118" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
         <v>160</v>
       </c>
       <c r="B118">
@@ -3229,8 +3796,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A119" s="1" t="s">
+    <row r="119" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
         <v>161</v>
       </c>
       <c r="B119">
@@ -3243,8 +3810,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A120" s="1" t="s">
+    <row r="120" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
         <v>162</v>
       </c>
       <c r="B120">
@@ -3257,8 +3824,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A121" s="1" t="s">
+    <row r="121" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
         <v>163</v>
       </c>
       <c r="B121">
@@ -3271,8 +3838,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A122" s="1" t="s">
+    <row r="122" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
         <v>164</v>
       </c>
       <c r="B122">
@@ -3285,8 +3852,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A123" s="1" t="s">
+    <row r="123" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
         <v>165</v>
       </c>
       <c r="B123">
@@ -3299,8 +3866,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A124" s="1" t="s">
+    <row r="124" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
         <v>166</v>
       </c>
       <c r="B124">
@@ -3313,8 +3880,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A125" s="1" t="s">
+    <row r="125" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
         <v>167</v>
       </c>
       <c r="B125">
@@ -3327,8 +3894,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A126" s="1" t="s">
+    <row r="126" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
         <v>168</v>
       </c>
       <c r="B126">
@@ -3341,8 +3908,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A127" s="1" t="s">
+    <row r="127" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
         <v>169</v>
       </c>
       <c r="B127">
@@ -3355,8 +3922,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="384.75" x14ac:dyDescent="0.45">
-      <c r="A128" s="1" t="s">
+    <row r="128" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
         <v>170</v>
       </c>
       <c r="B128">
@@ -3369,8 +3936,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A129" s="1" t="s">
+    <row r="129" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
         <v>171</v>
       </c>
       <c r="B129">
@@ -3383,8 +3950,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A130" s="1" t="s">
+    <row r="130" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
         <v>172</v>
       </c>
       <c r="B130">
@@ -3397,8 +3964,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A131" s="1" t="s">
+    <row r="131" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
         <v>173</v>
       </c>
       <c r="B131">
@@ -3411,8 +3978,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A132" s="1" t="s">
+    <row r="132" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
         <v>174</v>
       </c>
       <c r="B132">
@@ -3425,8 +3992,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="342" x14ac:dyDescent="0.45">
-      <c r="A133" s="1" t="s">
+    <row r="133" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
         <v>175</v>
       </c>
       <c r="B133">
@@ -3439,8 +4006,8 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A134" s="1" t="s">
+    <row r="134" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
         <v>176</v>
       </c>
       <c r="B134">
@@ -3453,8 +4020,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A135" s="1" t="s">
+    <row r="135" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
         <v>177</v>
       </c>
       <c r="B135">
@@ -3467,8 +4034,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A136" s="1" t="s">
+    <row r="136" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
         <v>178</v>
       </c>
       <c r="B136">
@@ -3481,8 +4048,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A137" s="1" t="s">
+    <row r="137" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
         <v>179</v>
       </c>
       <c r="B137">
@@ -3495,8 +4062,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="171" x14ac:dyDescent="0.45">
-      <c r="A138" s="1" t="s">
+    <row r="138" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
         <v>180</v>
       </c>
       <c r="B138">
@@ -3509,8 +4076,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A139" s="1" t="s">
+    <row r="139" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
         <v>181</v>
       </c>
       <c r="B139">
@@ -3523,8 +4090,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="171" x14ac:dyDescent="0.45">
-      <c r="A140" s="1" t="s">
+    <row r="140" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
         <v>182</v>
       </c>
       <c r="B140">
@@ -3537,8 +4104,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A141" s="1" t="s">
+    <row r="141" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
         <v>183</v>
       </c>
       <c r="B141">
@@ -3551,8 +4118,8 @@
         <v>278</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A142" s="1" t="s">
+    <row r="142" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
         <v>184</v>
       </c>
       <c r="B142">
@@ -3565,8 +4132,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A143" s="1" t="s">
+    <row r="143" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
         <v>185</v>
       </c>
       <c r="B143">
@@ -3579,8 +4146,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A144" s="1" t="s">
+    <row r="144" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
         <v>186</v>
       </c>
       <c r="B144">
@@ -3593,8 +4160,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A145" s="1" t="s">
+    <row r="145" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
         <v>187</v>
       </c>
       <c r="B145">
@@ -3607,8 +4174,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A146" s="1" t="s">
+    <row r="146" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
         <v>188</v>
       </c>
       <c r="B146">
@@ -3621,7 +4188,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>189</v>
       </c>
@@ -3635,7 +4202,1114 @@
         <v>240</v>
       </c>
     </row>
+    <row r="148" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>297</v>
+      </c>
+      <c r="C148">
+        <v>79653</v>
+      </c>
+      <c r="D148" t="s">
+        <v>306</v>
+      </c>
+      <c r="E148">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>298</v>
+      </c>
+      <c r="C149">
+        <v>9587432</v>
+      </c>
+      <c r="D149" t="s">
+        <v>307</v>
+      </c>
+      <c r="E149">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>299</v>
+      </c>
+      <c r="C150">
+        <v>9905972</v>
+      </c>
+      <c r="D150" t="s">
+        <v>308</v>
+      </c>
+      <c r="E150">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>300</v>
+      </c>
+      <c r="C151">
+        <v>9115737</v>
+      </c>
+      <c r="D151" t="s">
+        <v>309</v>
+      </c>
+      <c r="E151">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>301</v>
+      </c>
+      <c r="C152">
+        <v>388402</v>
+      </c>
+      <c r="D152" t="s">
+        <v>310</v>
+      </c>
+      <c r="E152">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>302</v>
+      </c>
+      <c r="C153">
+        <v>91958</v>
+      </c>
+      <c r="D153" t="s">
+        <v>311</v>
+      </c>
+      <c r="E153">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>303</v>
+      </c>
+      <c r="C154">
+        <v>2005838</v>
+      </c>
+      <c r="D154" t="s">
+        <v>312</v>
+      </c>
+      <c r="E154">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>304</v>
+      </c>
+      <c r="C155">
+        <v>85491</v>
+      </c>
+      <c r="D155" t="s">
+        <v>313</v>
+      </c>
+      <c r="E155">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>305</v>
+      </c>
+      <c r="C156">
+        <v>59687</v>
+      </c>
+      <c r="D156" t="s">
+        <v>314</v>
+      </c>
+      <c r="E156">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>315</v>
+      </c>
+      <c r="C157">
+        <v>85076</v>
+      </c>
+      <c r="D157" t="s">
+        <v>316</v>
+      </c>
+      <c r="E157">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>317</v>
+      </c>
+      <c r="C158">
+        <v>2005820</v>
+      </c>
+      <c r="D158" t="s">
+        <v>318</v>
+      </c>
+      <c r="E158">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>319</v>
+      </c>
+      <c r="C159">
+        <v>4573877</v>
+      </c>
+      <c r="D159" t="s">
+        <v>320</v>
+      </c>
+      <c r="E159">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>321</v>
+      </c>
+      <c r="C160">
+        <v>558408</v>
+      </c>
+      <c r="D160" t="s">
+        <v>322</v>
+      </c>
+      <c r="E160">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>323</v>
+      </c>
+      <c r="C161">
+        <v>17286569</v>
+      </c>
+      <c r="D161" t="s">
+        <v>324</v>
+      </c>
+      <c r="E161">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>325</v>
+      </c>
+      <c r="C162">
+        <v>388601</v>
+      </c>
+      <c r="D162" t="s">
+        <v>326</v>
+      </c>
+      <c r="E162">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>327</v>
+      </c>
+      <c r="C163">
+        <v>91958</v>
+      </c>
+      <c r="D163" t="s">
+        <v>328</v>
+      </c>
+      <c r="E163">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>329</v>
+      </c>
+      <c r="C164">
+        <v>4444765</v>
+      </c>
+      <c r="D164" t="s">
+        <v>330</v>
+      </c>
+      <c r="E164">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>331</v>
+      </c>
+      <c r="C165">
+        <v>388669</v>
+      </c>
+      <c r="D165" t="s">
+        <v>332</v>
+      </c>
+      <c r="E165">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>333</v>
+      </c>
+      <c r="C166">
+        <v>102836</v>
+      </c>
+      <c r="D166" t="s">
+        <v>334</v>
+      </c>
+      <c r="E166">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>335</v>
+      </c>
+      <c r="C167">
+        <v>2024</v>
+      </c>
+      <c r="D167" t="s">
+        <v>336</v>
+      </c>
+      <c r="E167">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>337</v>
+      </c>
+      <c r="C168">
+        <v>5904</v>
+      </c>
+      <c r="D168" t="s">
+        <v>338</v>
+      </c>
+      <c r="E168">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>339</v>
+      </c>
+      <c r="C169">
+        <v>71396</v>
+      </c>
+      <c r="D169" t="s">
+        <v>366</v>
+      </c>
+      <c r="E169">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>340</v>
+      </c>
+      <c r="C170">
+        <v>134737</v>
+      </c>
+      <c r="D170" t="s">
+        <v>341</v>
+      </c>
+      <c r="E170">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>342</v>
+      </c>
+      <c r="C171">
+        <v>190428</v>
+      </c>
+      <c r="D171" t="s">
+        <v>343</v>
+      </c>
+      <c r="E171">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>344</v>
+      </c>
+      <c r="C172">
+        <v>190747</v>
+      </c>
+      <c r="D172" t="s">
+        <v>345</v>
+      </c>
+      <c r="E172">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>346</v>
+      </c>
+      <c r="C173">
+        <v>227670</v>
+      </c>
+      <c r="D173" t="s">
+        <v>347</v>
+      </c>
+      <c r="E173">
+        <v>166.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>348</v>
+      </c>
+      <c r="C174">
+        <v>268424</v>
+      </c>
+      <c r="D174" t="s">
+        <v>349</v>
+      </c>
+      <c r="E174">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>350</v>
+      </c>
+      <c r="C175">
+        <v>271575</v>
+      </c>
+      <c r="D175" t="s">
+        <v>351</v>
+      </c>
+      <c r="E175">
+        <v>135.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>352</v>
+      </c>
+      <c r="C176">
+        <v>277113</v>
+      </c>
+      <c r="D176" t="s">
+        <v>353</v>
+      </c>
+      <c r="E176">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>354</v>
+      </c>
+      <c r="C177">
+        <v>306631</v>
+      </c>
+      <c r="D177" t="s">
+        <v>355</v>
+      </c>
+      <c r="E177">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>356</v>
+      </c>
+      <c r="C178">
+        <v>337197</v>
+      </c>
+      <c r="D178" t="s">
+        <v>357</v>
+      </c>
+      <c r="E178">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>358</v>
+      </c>
+      <c r="C179">
+        <v>10469321</v>
+      </c>
+      <c r="D179" t="s">
+        <v>359</v>
+      </c>
+      <c r="E179">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>360</v>
+      </c>
+      <c r="C180">
+        <v>10469328</v>
+      </c>
+      <c r="D180" t="s">
+        <v>361</v>
+      </c>
+      <c r="E180">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>362</v>
+      </c>
+      <c r="C181">
+        <v>21474808</v>
+      </c>
+      <c r="D181" t="s">
+        <v>363</v>
+      </c>
+      <c r="E181">
+        <v>195.85</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>364</v>
+      </c>
+      <c r="C182">
+        <v>2095571</v>
+      </c>
+      <c r="D182" t="s">
+        <v>365</v>
+      </c>
+      <c r="E182">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>367</v>
+      </c>
+      <c r="C183">
+        <v>96681</v>
+      </c>
+      <c r="D183" t="s">
+        <v>368</v>
+      </c>
+      <c r="E183" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>369</v>
+      </c>
+      <c r="C184">
+        <v>145595</v>
+      </c>
+      <c r="D184" t="s">
+        <v>370</v>
+      </c>
+      <c r="E184">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>371</v>
+      </c>
+      <c r="C185">
+        <v>67593</v>
+      </c>
+      <c r="D185" t="s">
+        <v>372</v>
+      </c>
+      <c r="E185">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>373</v>
+      </c>
+      <c r="C186">
+        <v>6760</v>
+      </c>
+      <c r="D186" t="s">
+        <v>374</v>
+      </c>
+      <c r="E186">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>375</v>
+      </c>
+      <c r="C187">
+        <v>389765</v>
+      </c>
+      <c r="D187" t="s">
+        <v>376</v>
+      </c>
+      <c r="E187">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>377</v>
+      </c>
+      <c r="C188">
+        <v>10176</v>
+      </c>
+      <c r="D188" t="s">
+        <v>378</v>
+      </c>
+      <c r="E188">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>379</v>
+      </c>
+      <c r="C189">
+        <v>17893</v>
+      </c>
+      <c r="D189" t="s">
+        <v>380</v>
+      </c>
+      <c r="E189">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>381</v>
+      </c>
+      <c r="C190">
+        <v>83889</v>
+      </c>
+      <c r="D190" t="s">
+        <v>382</v>
+      </c>
+      <c r="E190">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>383</v>
+      </c>
+      <c r="C191">
+        <v>4444361</v>
+      </c>
+      <c r="D191" t="s">
+        <v>384</v>
+      </c>
+      <c r="E191">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>385</v>
+      </c>
+      <c r="C192">
+        <v>6019</v>
+      </c>
+      <c r="D192" t="s">
+        <v>386</v>
+      </c>
+      <c r="E192">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>387</v>
+      </c>
+      <c r="C193">
+        <v>5422684</v>
+      </c>
+      <c r="D193" t="s">
+        <v>388</v>
+      </c>
+      <c r="E193">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>389</v>
+      </c>
+      <c r="C194">
+        <v>74284</v>
+      </c>
+      <c r="D194" t="s">
+        <v>390</v>
+      </c>
+      <c r="E194">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>391</v>
+      </c>
+      <c r="C195">
+        <v>148702</v>
+      </c>
+      <c r="D195" t="s">
+        <v>392</v>
+      </c>
+      <c r="E195">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>1721895</v>
+      </c>
+      <c r="C196">
+        <v>398561</v>
+      </c>
+      <c r="D196" t="s">
+        <v>393</v>
+      </c>
+      <c r="E196">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>394</v>
+      </c>
+      <c r="C197">
+        <v>79123</v>
+      </c>
+      <c r="D197" t="s">
+        <v>395</v>
+      </c>
+      <c r="E197">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>2331340</v>
+      </c>
+      <c r="C198">
+        <v>32855</v>
+      </c>
+      <c r="D198" t="s">
+        <v>396</v>
+      </c>
+      <c r="E198">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>397</v>
+      </c>
+      <c r="C199">
+        <v>89857</v>
+      </c>
+      <c r="D199" t="s">
+        <v>398</v>
+      </c>
+      <c r="E199">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>399</v>
+      </c>
+      <c r="C200">
+        <v>2015550</v>
+      </c>
+      <c r="D200" t="s">
+        <v>400</v>
+      </c>
+      <c r="E200">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>401</v>
+      </c>
+      <c r="C201">
+        <v>58735</v>
+      </c>
+      <c r="D201" t="s">
+        <v>402</v>
+      </c>
+      <c r="E201">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>1690776</v>
+      </c>
+      <c r="C202">
+        <v>78777</v>
+      </c>
+      <c r="D202" t="s">
+        <v>403</v>
+      </c>
+      <c r="E202">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>404</v>
+      </c>
+      <c r="C203">
+        <v>22563</v>
+      </c>
+      <c r="D203" t="s">
+        <v>405</v>
+      </c>
+      <c r="E203">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>406</v>
+      </c>
+      <c r="C204">
+        <v>79877</v>
+      </c>
+      <c r="D204" t="s">
+        <v>407</v>
+      </c>
+      <c r="E204">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>408</v>
+      </c>
+      <c r="C205">
+        <v>388669</v>
+      </c>
+      <c r="D205" t="s">
+        <v>409</v>
+      </c>
+      <c r="E205">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>410</v>
+      </c>
+      <c r="C206">
+        <v>83925</v>
+      </c>
+      <c r="D206" t="s">
+        <v>411</v>
+      </c>
+      <c r="E206">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>412</v>
+      </c>
+      <c r="C207">
+        <v>75004</v>
+      </c>
+      <c r="D207" t="s">
+        <v>413</v>
+      </c>
+      <c r="E207">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>414</v>
+      </c>
+      <c r="C208">
+        <v>66248</v>
+      </c>
+      <c r="D208" t="s">
+        <v>415</v>
+      </c>
+      <c r="E208">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>416</v>
+      </c>
+      <c r="C209">
+        <v>9053935</v>
+      </c>
+      <c r="D209" t="s">
+        <v>417</v>
+      </c>
+      <c r="E209">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>418</v>
+      </c>
+      <c r="C210">
+        <v>17286569</v>
+      </c>
+      <c r="D210" t="s">
+        <v>419</v>
+      </c>
+      <c r="E210">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>420</v>
+      </c>
+      <c r="C211">
+        <v>38116</v>
+      </c>
+      <c r="D211" t="s">
+        <v>421</v>
+      </c>
+      <c r="E211">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>422</v>
+      </c>
+      <c r="C212">
+        <v>94492</v>
+      </c>
+      <c r="D212" t="s">
+        <v>423</v>
+      </c>
+      <c r="E212">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>424</v>
+      </c>
+      <c r="C213">
+        <v>140353</v>
+      </c>
+      <c r="D213" t="s">
+        <v>425</v>
+      </c>
+      <c r="E213">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>426</v>
+      </c>
+      <c r="C214">
+        <v>4450242</v>
+      </c>
+      <c r="D214" t="s">
+        <v>427</v>
+      </c>
+      <c r="E214">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A215">
+        <v>4157370</v>
+      </c>
+      <c r="C215">
+        <v>2005837</v>
+      </c>
+      <c r="D215" t="s">
+        <v>428</v>
+      </c>
+      <c r="E215">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>429</v>
+      </c>
+      <c r="C216">
+        <v>2300694</v>
+      </c>
+      <c r="D216" t="s">
+        <v>430</v>
+      </c>
+      <c r="E216">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>431</v>
+      </c>
+      <c r="C217">
+        <v>10974</v>
+      </c>
+      <c r="D217" t="s">
+        <v>432</v>
+      </c>
+      <c r="E217">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>433</v>
+      </c>
+      <c r="C218">
+        <v>18532158</v>
+      </c>
+      <c r="D218" t="s">
+        <v>434</v>
+      </c>
+      <c r="E218">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>93798</v>
+      </c>
+      <c r="C219">
+        <v>19951198</v>
+      </c>
+      <c r="D219" t="s">
+        <v>435</v>
+      </c>
+      <c r="E219">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>436</v>
+      </c>
+      <c r="C220">
+        <v>171672</v>
+      </c>
+      <c r="D220" t="s">
+        <v>437</v>
+      </c>
+      <c r="E220">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A221">
+        <v>93355</v>
+      </c>
+      <c r="C221">
+        <v>388333</v>
+      </c>
+      <c r="D221" t="s">
+        <v>438</v>
+      </c>
+      <c r="E221">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>439</v>
+      </c>
+      <c r="C222">
+        <v>16739130</v>
+      </c>
+      <c r="D222" t="s">
+        <v>440</v>
+      </c>
+      <c r="E222">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>441</v>
+      </c>
+      <c r="C223">
+        <v>388637</v>
+      </c>
+      <c r="D223" t="s">
+        <v>442</v>
+      </c>
+      <c r="E223">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>443</v>
+      </c>
+      <c r="C224">
+        <v>111589</v>
+      </c>
+      <c r="D224" t="s">
+        <v>444</v>
+      </c>
+      <c r="E224">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>445</v>
+      </c>
+      <c r="C225">
+        <v>84025</v>
+      </c>
+      <c r="D225" t="s">
+        <v>446</v>
+      </c>
+      <c r="E225">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A226">
+        <v>1865171</v>
+      </c>
+      <c r="C226">
+        <v>2018945</v>
+      </c>
+      <c r="D226" t="s">
+        <v>447</v>
+      </c>
+      <c r="E226">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>